--- a/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
@@ -756,7 +756,7 @@
         <v>2088800</v>
       </c>
       <c r="E9" s="3">
-        <v>1923200</v>
+        <v>1935400</v>
       </c>
       <c r="F9" s="3">
         <v>1763800</v>
@@ -789,7 +789,7 @@
         <v>815800</v>
       </c>
       <c r="E10" s="3">
-        <v>786300</v>
+        <v>774100</v>
       </c>
       <c r="F10" s="3">
         <v>733800</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>49000</v>
+        <v>36800</v>
       </c>
       <c r="F14" s="3">
         <v>13000</v>
@@ -1194,7 +1194,7 @@
         <v>54000</v>
       </c>
       <c r="E24" s="3">
-        <v>129000</v>
+        <v>57000</v>
       </c>
       <c r="F24" s="3">
         <v>41300</v>
@@ -1260,7 +1260,7 @@
         <v>179700</v>
       </c>
       <c r="E26" s="3">
-        <v>54900</v>
+        <v>126900</v>
       </c>
       <c r="F26" s="3">
         <v>140400</v>
@@ -1293,7 +1293,7 @@
         <v>179700</v>
       </c>
       <c r="E27" s="3">
-        <v>54800</v>
+        <v>126700</v>
       </c>
       <c r="F27" s="3">
         <v>141300</v>
@@ -1359,7 +1359,7 @@
         <v>35</v>
       </c>
       <c r="E29" s="3">
-        <v>41700</v>
+        <v>-30200</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>35</v>

--- a/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>MOG.A</t>
   </si>
@@ -1109,8 +1109,8 @@
       <c r="I21" s="3">
         <v>328200</v>
       </c>
-      <c r="J21" s="3">
-        <v>273100</v>
+      <c r="J21" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K21" s="3">
         <v>309700</v>
@@ -2925,8 +2925,8 @@
       <c r="I83" s="3">
         <v>109300</v>
       </c>
-      <c r="J83" s="3">
-        <v>108100</v>
+      <c r="J83" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K83" s="3">
         <v>100800</v>
@@ -3270,8 +3270,8 @@
       <c r="I94" s="3">
         <v>-86900</v>
       </c>
-      <c r="J94" s="3">
-        <v>-173400</v>
+      <c r="J94" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K94" s="3">
         <v>-215600</v>
@@ -3450,8 +3450,8 @@
       <c r="I100" s="3">
         <v>-118400</v>
       </c>
-      <c r="J100" s="3">
-        <v>-72100</v>
+      <c r="J100" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K100" s="3">
         <v>37400</v>
@@ -3483,8 +3483,8 @@
       <c r="I101" s="3">
         <v>-7600</v>
       </c>
-      <c r="J101" s="3">
-        <v>2500</v>
+      <c r="J101" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K101" s="3">
         <v>-1000</v>

--- a/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>MOG.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,169 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43372</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42644</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42280</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41909</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41545</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41181</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40817</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2884600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2904700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2709500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2497500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2411900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2525500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2648400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2610300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2469500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2330700</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2140900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2088800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1935400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1763800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1700400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1788800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1850800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1826600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1724200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1651200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>743700</v>
+      </c>
+      <c r="E10" s="3">
         <v>815800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>774100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>733800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>711600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>736700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>797600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>783800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>745300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>679500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,41 +841,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>110900</v>
+      </c>
+      <c r="E12" s="3">
         <v>126500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>129800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>144200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>147300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>132300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>139500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>134700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>116400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>106400</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,42 +910,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>169900</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>36800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>20200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>17400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>52300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -959,9 +982,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +998,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2670900</v>
+        <v>2879100</v>
       </c>
       <c r="E17" s="3">
-        <v>2525600</v>
+        <v>2677700</v>
       </c>
       <c r="F17" s="3">
+        <v>2527300</v>
+      </c>
+      <c r="G17" s="3">
         <v>2315800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2239100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2341700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2429500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2445300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2260700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2146900</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>233800</v>
+        <v>5400</v>
       </c>
       <c r="E18" s="3">
+        <v>227000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>182200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>181700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>172900</v>
+      </c>
+      <c r="I18" s="3">
         <v>183800</v>
       </c>
-      <c r="F18" s="3">
-        <v>181700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>172900</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
+        <v>218900</v>
+      </c>
+      <c r="K18" s="3">
+        <v>165000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>208800</v>
+      </c>
+      <c r="M18" s="3">
         <v>183800</v>
       </c>
-      <c r="I18" s="3">
-        <v>218900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>165000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>208800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>183800</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1053,8 +1086,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,42 +1119,48 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>319000</v>
+        <v>92400</v>
       </c>
       <c r="E21" s="3">
-        <v>272400</v>
+        <v>312200</v>
       </c>
       <c r="F21" s="3">
+        <v>270800</v>
+      </c>
+      <c r="G21" s="3">
         <v>271900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>271600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>287400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>328200</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>309700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>280100</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1151,75 +1191,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>233800</v>
+        <v>5400</v>
       </c>
       <c r="E23" s="3">
+        <v>227000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>182200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>181700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>172900</v>
+      </c>
+      <c r="I23" s="3">
         <v>183800</v>
       </c>
-      <c r="F23" s="3">
-        <v>181700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>172900</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
+        <v>218900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>165000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>208800</v>
+      </c>
+      <c r="M23" s="3">
         <v>183800</v>
       </c>
-      <c r="I23" s="3">
-        <v>218900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>165000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>208800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>183800</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>54000</v>
+        <v>-3800</v>
       </c>
       <c r="E24" s="3">
-        <v>57000</v>
+        <v>52400</v>
       </c>
       <c r="F24" s="3">
+        <v>56600</v>
+      </c>
+      <c r="G24" s="3">
         <v>41300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>49200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>52000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>60700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>44500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>56400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>47800</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,75 +1299,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>179700</v>
+        <v>9200</v>
       </c>
       <c r="E26" s="3">
-        <v>126900</v>
+        <v>174500</v>
       </c>
       <c r="F26" s="3">
+        <v>125600</v>
+      </c>
+      <c r="G26" s="3">
         <v>140400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>123600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>131900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>158200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>120500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>152500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>136000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>179700</v>
+        <v>9200</v>
       </c>
       <c r="E27" s="3">
+        <v>174500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>125500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>141300</v>
+      </c>
+      <c r="H27" s="3">
         <v>126700</v>
       </c>
-      <c r="F27" s="3">
-        <v>141300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>126700</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>131900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>158200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>120500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>152500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>136000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1349,20 +1407,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="3">
         <v>-30200</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>35</v>
@@ -1379,12 +1440,15 @@
       <c r="K29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1415,9 +1479,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1448,9 +1515,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1481,42 +1551,48 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>179700</v>
+        <v>9200</v>
       </c>
       <c r="E33" s="3">
-        <v>96500</v>
+        <v>174500</v>
       </c>
       <c r="F33" s="3">
+        <v>95200</v>
+      </c>
+      <c r="G33" s="3">
         <v>141300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>126700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>131900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>158200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>120500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>152500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>136000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1547,80 +1623,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>179700</v>
+        <v>9200</v>
       </c>
       <c r="E35" s="3">
-        <v>96500</v>
+        <v>174500</v>
       </c>
       <c r="F35" s="3">
+        <v>95200</v>
+      </c>
+      <c r="G35" s="3">
         <v>141300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>126700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>131900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>158200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>120500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>152500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>136000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43372</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42644</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42280</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41909</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41545</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41181</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40817</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1634,8 +1719,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1649,58 +1735,62 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E41" s="3">
         <v>89700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>125600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>368100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>325100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>309900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>231300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>157100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>148800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>113700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>400</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>35</v>
@@ -1714,141 +1804,156 @@
       <c r="L42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>855500</v>
+      </c>
+      <c r="E43" s="3">
         <v>957300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>793900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>727700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>688400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>698400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>780900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1622800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>744600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>655800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E44" s="3">
         <v>535000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>512500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>489100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>479000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>493400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>517100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>551700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>538300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>502400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E45" s="3">
         <v>47000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>46500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>41400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>127200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>125900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>134800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>127200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>117300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>108600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1613500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1629000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1478500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1626400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1527200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1627500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1664100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1647400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1548900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1380400</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,75 +1984,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>668900</v>
+      </c>
+      <c r="E48" s="3">
         <v>586800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1922600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>523000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1770500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>536800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>555300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1738400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>546200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>503900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>906900</v>
+      </c>
+      <c r="E49" s="3">
         <v>863900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>892800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>883100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>853700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>880900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>935900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1003900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>975000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>932600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2092,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,42 +2128,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E52" s="3">
         <v>34600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>39900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>58100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>101600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>41300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>53100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>51700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2200,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3225800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3114200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2964000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3090600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3005000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3086500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3208500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3237100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3105900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2843000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2255,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,206 +2271,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>176900</v>
+      </c>
+      <c r="E57" s="3">
         <v>257700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>207400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>170900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>144400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>166000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>162700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>181900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>169600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>165900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>108900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>108500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>94000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10700</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>531100</v>
+      </c>
+      <c r="E59" s="3">
         <v>469700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>635600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>458200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>443000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>439400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>451200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>432900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>369800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>710600</v>
+      </c>
+      <c r="E60" s="3">
         <v>727700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>680600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>629400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>588900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>605500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>722800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>723200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>663900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>546400</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>941400</v>
+      </c>
+      <c r="E61" s="3">
         <v>833000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>858800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>956700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1010500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1075100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>765100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>600700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>670700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>714800</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>330800</v>
+      </c>
+      <c r="E62" s="3">
         <v>231100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>199600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>290200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>417100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>411400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>373100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>377400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>466600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>389900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2520,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2404,9 +2556,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2592,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1982700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1791800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1739100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1876300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2016600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2091900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1861000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1701300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1801100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1651100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2647,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2680,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2716,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2752,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2788,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2112700</v>
+      </c>
+      <c r="E72" s="3">
         <v>2133300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1973500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1847800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1706500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1579800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1447900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1289700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1169200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1016800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2860,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2896,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2932,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1243100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1322500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1225000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1214300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>988400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>994500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1347400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1535800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1304800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1191900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3004,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43372</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42644</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42280</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41909</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41545</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41181</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40817</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>179700</v>
+        <v>9200</v>
       </c>
       <c r="E81" s="3">
-        <v>96500</v>
+        <v>174500</v>
       </c>
       <c r="F81" s="3">
+        <v>95200</v>
+      </c>
+      <c r="G81" s="3">
         <v>141300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>126700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>131900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>158200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>120500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>152500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>136000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,41 +3100,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E83" s="3">
         <v>85300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>88600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>90200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>98700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>103600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>109300</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>96300</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3169,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3205,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3241,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3277,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3313,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>279200</v>
+      </c>
+      <c r="E89" s="3">
         <v>181400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>102400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>217800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>215900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>334500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>287100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>251300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>214300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>196200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,41 +3368,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-118400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-94500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-75800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-67200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-80700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-78800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-93200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-107000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-83700</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3437,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3473,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-146200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-115700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-141600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-109500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-79200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-67600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-86900</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-215600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-121200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,20 +3528,21 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-34900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-17900</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3327,9 +3561,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3597,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3633,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,106 +3669,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-98700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-221600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-75700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-119900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-166000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-118400</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>37400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-72800</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>10400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-22400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7600</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-259300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>43000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>78600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>74200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>MOG.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,181 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43372</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42644</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42280</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41909</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41545</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41181</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40817</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2852000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2884600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2904700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2709500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2497500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2411900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2525500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2648400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2610300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2469500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2330700</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2076300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2140900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2088800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1935400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1763800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1700400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1788800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1850800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1826600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1724200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1651200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>775700</v>
+      </c>
+      <c r="E10" s="3">
         <v>743700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>815800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>774100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>733800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>711600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>736700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>797600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>783800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>745300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>679500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,44 +854,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E12" s="3">
         <v>110900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>126500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>129800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>144200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>147300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>132300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>139500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>134700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>116400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>106400</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -913,45 +929,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>169900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>36800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>20200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>17400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>52300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -985,9 +1007,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -999,80 +1024,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2648200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2879100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2677700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2527300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2315800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2239100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2341700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2429500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2445300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2260700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2146900</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>203800</v>
+      </c>
+      <c r="E18" s="3">
         <v>5400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>227000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>182200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>181700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>172900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>183800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>218900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>165000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>208800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>183800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1087,8 +1119,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1122,45 +1155,51 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>293900</v>
+      </c>
+      <c r="E21" s="3">
         <v>92400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>312200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>270800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>271900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>271600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>287400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>328200</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>309700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>280100</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,81 +1233,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>203800</v>
+      </c>
+      <c r="E23" s="3">
         <v>5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>227000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>182200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>181700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>172900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>183800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>218900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>165000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>208800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>183800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>52400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>56600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>41300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>49200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>52000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>60700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>56400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>47800</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1302,81 +1350,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E26" s="3">
         <v>9200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>174500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>125600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>140400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>123600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>131900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>158200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>120500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>152500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>136000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E27" s="3">
         <v>9200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>174500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>125500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>141300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>126700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>131900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>158200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>120500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>152500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>136000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1410,9 +1467,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1422,11 +1482,11 @@
       <c r="E29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="3">
         <v>-30200</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>35</v>
@@ -1443,12 +1503,15 @@
       <c r="L29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1482,9 +1545,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1518,9 +1584,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1554,45 +1623,51 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E33" s="3">
         <v>9200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>174500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>95200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>141300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>126700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>131900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>158200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>120500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>152500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>136000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1626,86 +1701,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E35" s="3">
         <v>9200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>174500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>95200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>141300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>126700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>131900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>158200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>120500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>152500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>136000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43372</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42644</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42280</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41909</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41545</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41181</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40817</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1720,8 +1804,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1736,44 +1821,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E41" s="3">
         <v>84600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>89700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>125600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>368100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>325100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>309900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>231300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>157100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>148800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>113700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1783,17 +1872,17 @@
       <c r="E42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="3">
         <v>300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>400</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>35</v>
@@ -1807,153 +1896,168 @@
       <c r="M42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>945900</v>
+      </c>
+      <c r="E43" s="3">
         <v>855500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>957300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>793900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>727700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>688400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>698400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>780900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1622800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>744600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>655800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>613100</v>
+      </c>
+      <c r="E44" s="3">
         <v>623000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>535000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>512500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>489100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>479000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>493400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>517100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>551700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>538300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>502400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E45" s="3">
         <v>50300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>47000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>127200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>125900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>134800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>127200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>117300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>108600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1718800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1613500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1629000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1478500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1626400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1527200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1627500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1664100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1647400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1548900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1380400</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1987,81 +2091,90 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>706100</v>
+      </c>
+      <c r="E48" s="3">
         <v>668900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>586800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1922600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>523000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1770500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>536800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>555300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1738400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>546200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>503900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>957700</v>
+      </c>
+      <c r="E49" s="3">
         <v>906900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>863900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>892800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>883100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>853700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>880900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>935900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1003900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>975000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>932600</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2095,9 +2208,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2131,45 +2247,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E52" s="3">
         <v>36600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>34600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>39900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>58100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>101600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>41300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>53100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>51700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2203,45 +2325,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3433200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3225800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3114200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2964000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3090600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3005000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3086500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3208500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3237100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3105900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2843000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2256,8 +2384,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2272,224 +2401,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E57" s="3">
         <v>176900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>257700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>207400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>170900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>144400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>166000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>162700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>181900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>169600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>165900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>108900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>108500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>94000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10700</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>586400</v>
+      </c>
+      <c r="E59" s="3">
         <v>531100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>469700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>635600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>458200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>443000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>439400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>451200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>432900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>369800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>869400</v>
+      </c>
+      <c r="E60" s="3">
         <v>710600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>727700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>680600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>629400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>588900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>605500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>722800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>723200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>663900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>546400</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>839300</v>
+      </c>
+      <c r="E61" s="3">
         <v>941400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>833000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>858800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>956700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1010500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1075100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>765100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>600700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>670700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>714800</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>324400</v>
+      </c>
+      <c r="E62" s="3">
         <v>330800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>231100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>199600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>290200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>417100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>411400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>373100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>377400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>466600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>389900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2523,9 +2671,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2559,9 +2710,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2595,45 +2749,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2033000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1982700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1791800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1739100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1876300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2016600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2091900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1861000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1701300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1801100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1651100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2648,8 +2808,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2683,9 +2844,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2719,9 +2883,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2755,9 +2922,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2791,45 +2961,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2237800</v>
+      </c>
+      <c r="E72" s="3">
         <v>2112700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2133300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1973500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1847800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1706500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1579800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1447900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1289700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1169200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1016800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2863,9 +3039,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2899,9 +3078,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2935,45 +3117,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1400100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1243100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1322500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1225000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1214300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>988400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>994500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1347400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1535800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1304800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1191900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3007,86 +3195,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43372</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42644</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42280</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41909</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41545</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41181</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40817</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E81" s="3">
         <v>9200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>174500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>95200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>141300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>126700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>131900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>158200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>120500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>152500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>136000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3101,44 +3298,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E83" s="3">
         <v>87000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>85300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>88600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>90200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>98700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>103600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>109300</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>96300</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3172,9 +3373,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3208,9 +3412,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3244,9 +3451,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3280,9 +3490,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3316,45 +3529,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>293200</v>
+      </c>
+      <c r="E89" s="3">
         <v>279200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>181400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>102400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>217800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>215900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>334500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>287100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>251300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>214300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>196200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3369,44 +3588,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-128700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-88300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-118400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-94500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-75800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-67200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-80700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-78800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-93200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-107000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-83700</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3440,9 +3663,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3476,45 +3702,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-191200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-146200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-115700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-141600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-109500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-79200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-67600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-86900</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-215600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-121200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3529,23 +3761,24 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-25200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-34900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-17900</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3564,9 +3797,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3600,9 +3836,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3636,9 +3875,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3672,115 +3914,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-142800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-98700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-221600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-75700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-119900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-166000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-118400</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>37400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-72800</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>10400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-22400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7600</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-259300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>43000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>78600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>74200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>MOG.A</t>
   </si>
@@ -1165,25 +1165,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>293900</v>
+        <v>290700</v>
       </c>
       <c r="E21" s="3">
-        <v>92400</v>
+        <v>90700</v>
       </c>
       <c r="F21" s="3">
-        <v>312200</v>
+        <v>315500</v>
       </c>
       <c r="G21" s="3">
-        <v>270800</v>
+        <v>272300</v>
       </c>
       <c r="H21" s="3">
-        <v>271900</v>
+        <v>280400</v>
       </c>
       <c r="I21" s="3">
-        <v>271600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>287400</v>
+        <v>276500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K21" s="3">
         <v>328200</v>
@@ -3305,25 +3305,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>85300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>88600</v>
+      </c>
+      <c r="G83" s="3">
         <v>90200</v>
       </c>
-      <c r="E83" s="3">
-        <v>87000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>85300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>88600</v>
-      </c>
       <c r="H83" s="3">
-        <v>90200</v>
+        <v>98700</v>
       </c>
       <c r="I83" s="3">
-        <v>98700</v>
-      </c>
-      <c r="J83" s="3">
         <v>103600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K83" s="3">
         <v>109300</v>
@@ -3539,25 +3539,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>293200</v>
+        <v>279200</v>
       </c>
       <c r="E89" s="3">
-        <v>279200</v>
+        <v>181400</v>
       </c>
       <c r="F89" s="3">
-        <v>181400</v>
+        <v>102400</v>
       </c>
       <c r="G89" s="3">
-        <v>102400</v>
+        <v>217800</v>
       </c>
       <c r="H89" s="3">
-        <v>217800</v>
+        <v>215900</v>
       </c>
       <c r="I89" s="3">
-        <v>215900</v>
+        <v>334500</v>
       </c>
       <c r="J89" s="3">
-        <v>334500</v>
+        <v>287100</v>
       </c>
       <c r="K89" s="3">
         <v>287100</v>
@@ -3595,25 +3595,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-128700</v>
+        <v>-88300</v>
       </c>
       <c r="E91" s="3">
-        <v>-88300</v>
+        <v>-118400</v>
       </c>
       <c r="F91" s="3">
-        <v>-118400</v>
+        <v>-94500</v>
       </c>
       <c r="G91" s="3">
-        <v>-94500</v>
+        <v>-75800</v>
       </c>
       <c r="H91" s="3">
-        <v>-75800</v>
+        <v>-67200</v>
       </c>
       <c r="I91" s="3">
-        <v>-67200</v>
+        <v>-80700</v>
       </c>
       <c r="J91" s="3">
-        <v>-80700</v>
+        <v>-78800</v>
       </c>
       <c r="K91" s="3">
         <v>-78800</v>
@@ -3712,25 +3712,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-191200</v>
+        <v>-146200</v>
       </c>
       <c r="E94" s="3">
-        <v>-146200</v>
+        <v>-115700</v>
       </c>
       <c r="F94" s="3">
-        <v>-115700</v>
+        <v>-141600</v>
       </c>
       <c r="G94" s="3">
-        <v>-141600</v>
+        <v>-109500</v>
       </c>
       <c r="H94" s="3">
-        <v>-109500</v>
+        <v>-79200</v>
       </c>
       <c r="I94" s="3">
-        <v>-79200</v>
-      </c>
-      <c r="J94" s="3">
         <v>-67600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K94" s="3">
         <v>-86900</v>
@@ -3768,16 +3768,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-32100</v>
+        <v>-25200</v>
       </c>
       <c r="E96" s="3">
-        <v>-25200</v>
+        <v>-34900</v>
       </c>
       <c r="F96" s="3">
-        <v>-34900</v>
+        <v>-17900</v>
       </c>
       <c r="G96" s="3">
-        <v>-17900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3924,25 +3924,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-87000</v>
+        <v>-142800</v>
       </c>
       <c r="E100" s="3">
-        <v>-142800</v>
+        <v>-98700</v>
       </c>
       <c r="F100" s="3">
-        <v>-98700</v>
+        <v>-221600</v>
       </c>
       <c r="G100" s="3">
-        <v>-221600</v>
+        <v>-75700</v>
       </c>
       <c r="H100" s="3">
-        <v>-75700</v>
+        <v>-119900</v>
       </c>
       <c r="I100" s="3">
-        <v>-119900</v>
-      </c>
-      <c r="J100" s="3">
         <v>-166000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K100" s="3">
         <v>-118400</v>
@@ -3963,25 +3963,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="E101" s="3">
-        <v>2300</v>
+        <v>-2200</v>
       </c>
       <c r="F101" s="3">
-        <v>-2200</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="3">
-        <v>1500</v>
+        <v>10400</v>
       </c>
       <c r="H101" s="3">
-        <v>10400</v>
+        <v>-3800</v>
       </c>
       <c r="I101" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="J101" s="3">
         <v>-22400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K101" s="3">
         <v>-7600</v>
@@ -4002,25 +4002,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15800</v>
+        <v>-7500</v>
       </c>
       <c r="E102" s="3">
-        <v>-7500</v>
+        <v>-35200</v>
       </c>
       <c r="F102" s="3">
-        <v>-35200</v>
+        <v>-259300</v>
       </c>
       <c r="G102" s="3">
-        <v>-259300</v>
+        <v>43000</v>
       </c>
       <c r="H102" s="3">
-        <v>43000</v>
+        <v>13000</v>
       </c>
       <c r="I102" s="3">
-        <v>13000</v>
+        <v>78600</v>
       </c>
       <c r="J102" s="3">
-        <v>78600</v>
+        <v>74200</v>
       </c>
       <c r="K102" s="3">
         <v>74200</v>

--- a/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>MOG.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43372</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42644</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42280</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41909</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41545</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41181</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40817</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3035800</v>
+      </c>
+      <c r="E8" s="3">
         <v>2852000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2884600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2904700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2709500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2497500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2411900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2525500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2648400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2610300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2469500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2330700</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2215000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2076300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2140900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2088800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1935400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1763800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1700400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1788800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1850800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1826600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1724200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1651200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>820800</v>
+      </c>
+      <c r="E10" s="3">
         <v>775700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>743700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>815800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>774100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>733800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>711600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>736700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>797600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>783800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>745300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>679500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,47 +867,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E12" s="3">
         <v>125500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>110900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>126500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>129800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>144200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>147300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>132300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>139500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>134700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>116400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>106400</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,48 +948,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>169900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>36800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>17400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>52300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,9 +1032,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,86 +1050,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2832800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2648200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2879100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2677700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2527300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2315800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2239100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2341700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2429500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2445300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2260700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2146900</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E18" s="3">
         <v>203800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>227000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>182200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>181700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>172900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>183800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>218900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>165000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>208800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>183800</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1120,8 +1152,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1158,48 +1191,54 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>290700</v>
+        <v>291400</v>
       </c>
       <c r="E21" s="3">
-        <v>90700</v>
+        <v>293900</v>
       </c>
       <c r="F21" s="3">
-        <v>315500</v>
+        <v>92400</v>
       </c>
       <c r="G21" s="3">
-        <v>272300</v>
+        <v>312200</v>
       </c>
       <c r="H21" s="3">
-        <v>280400</v>
+        <v>270800</v>
       </c>
       <c r="I21" s="3">
-        <v>276500</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>271900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>271600</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>328200</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>309700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>280100</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1236,87 +1275,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E23" s="3">
         <v>203800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>227000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>182200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>181700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>172900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>183800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>218900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>165000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>208800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>183800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E24" s="3">
         <v>46600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>52400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>56600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>41300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>49200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>52000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>60700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>47800</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1353,87 +1401,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>155200</v>
+      </c>
+      <c r="E26" s="3">
         <v>157200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>174500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>125600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>140400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>123600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>131900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>158200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>120500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>152500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>136000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>155200</v>
+      </c>
+      <c r="E27" s="3">
         <v>157200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>174500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>125500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>141300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>126700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>131900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>158200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>120500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>152500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>136000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1470,9 +1527,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1485,11 +1545,11 @@
       <c r="F29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="3">
         <v>-30200</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>35</v>
@@ -1506,12 +1566,15 @@
       <c r="M29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1548,9 +1611,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1587,9 +1653,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1626,48 +1695,54 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>155200</v>
+      </c>
+      <c r="E33" s="3">
         <v>157200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>174500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>95200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>141300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>126700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>131900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>158200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>120500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>152500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>136000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1704,92 +1779,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>155200</v>
+      </c>
+      <c r="E35" s="3">
         <v>157200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>174500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>95200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>141300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>126700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>131900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>158200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>120500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>152500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>136000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43372</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42644</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42280</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41909</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41545</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41181</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40817</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1805,8 +1889,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1822,47 +1907,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E41" s="3">
         <v>99600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>125600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>368100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>325100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>309900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>231300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>157100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>148800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>113700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1875,17 +1964,17 @@
       <c r="F42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="3">
         <v>300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>400</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>35</v>
@@ -1899,165 +1988,180 @@
       <c r="N42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>990300</v>
+      </c>
+      <c r="E43" s="3">
         <v>945900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>855500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>957300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>793900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>727700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>688400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>698400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>780900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1622800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>744600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>655800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>588500</v>
+      </c>
+      <c r="E44" s="3">
         <v>613100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>623000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>535000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>512500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>489100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>479000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>493400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>517100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>551700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>538300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>502400</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E45" s="3">
         <v>60200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>50300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>47000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>46500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>41400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>127200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>125900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>134800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>127200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>117300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>108600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1758300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1718800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1613500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1629000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1478500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1626400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1527200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1627500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1664100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1647400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1548900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1380400</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2094,87 +2198,96 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>738000</v>
+      </c>
+      <c r="E48" s="3">
         <v>706100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>668900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>586800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1922600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>523000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1770500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>536800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>555300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1738400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>546200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>503900</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>890700</v>
+      </c>
+      <c r="E49" s="3">
         <v>957700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>906900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>863900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>892800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>883100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>853700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>880900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>935900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1003900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>975000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>932600</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2211,9 +2324,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2250,48 +2366,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E52" s="3">
         <v>50600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>34600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>39900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>58100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>101600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>41300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>53100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>51700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>35800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26100</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2328,48 +2450,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3431800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3433200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3225800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3114200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2964000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3090600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3005000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3086500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3208500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3237100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3105900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2843000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2385,8 +2513,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2402,242 +2531,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>176900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>257700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>207400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>170900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>144400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>166000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>162700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>181900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>169600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>165900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
         <v>82400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>108900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>108500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>94000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10700</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>602200</v>
+      </c>
+      <c r="E59" s="3">
         <v>586400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>531100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>469700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>635600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>458200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>443000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>439400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>451200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>432900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>369800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>838400</v>
+      </c>
+      <c r="E60" s="3">
         <v>869400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>710600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>727700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>680600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>629400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>588900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>605500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>722800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>723200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>663900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>546400</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>860400</v>
+      </c>
+      <c r="E61" s="3">
         <v>839300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>941400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>833000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>858800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>956700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1010500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1075100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>765100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>670700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>714800</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>296200</v>
+      </c>
+      <c r="E62" s="3">
         <v>324400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>330800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>231100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>199600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>290200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>417100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>411400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>373100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>377400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>466600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>389900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2674,9 +2822,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2713,9 +2864,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2752,48 +2906,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1995000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2033000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1982700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1791800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1739100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1876300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2016600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2091900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1861000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1701300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1801100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1651100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2809,8 +2969,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2847,9 +3008,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2886,9 +3050,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2925,9 +3092,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2964,48 +3134,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2360100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2237800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2112700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2133300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1973500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1847800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1706500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1579800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1447900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1289700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1169200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1016800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3042,9 +3218,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3081,9 +3260,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3120,48 +3302,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1436800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1400100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1243100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1322500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1225000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1214300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>988400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>994500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1347400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1535800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1304800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1191900</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3198,92 +3386,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43372</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42644</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42280</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41909</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41545</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41181</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40817</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>155200</v>
+      </c>
+      <c r="E81" s="3">
         <v>157200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>174500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>95200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>141300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>126700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>131900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>158200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>120500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>152500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>136000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3299,47 +3496,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>88400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>90200</v>
+      </c>
+      <c r="F83" s="3">
         <v>87000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>85300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>88600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>90200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>98700</v>
       </c>
-      <c r="I83" s="3">
-        <v>103600</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>109300</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>96300</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3376,9 +3577,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3415,9 +3619,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3454,9 +3661,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3493,9 +3703,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3532,48 +3745,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>246800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>293200</v>
+      </c>
+      <c r="F89" s="3">
         <v>279200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>181400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>102400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>217800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>215900</v>
-      </c>
-      <c r="I89" s="3">
-        <v>334500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>287100</v>
       </c>
       <c r="K89" s="3">
         <v>287100</v>
       </c>
       <c r="L89" s="3">
+        <v>287100</v>
+      </c>
+      <c r="M89" s="3">
         <v>251300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>214300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>196200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3589,47 +3808,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-139400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-128700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-88300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-118400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-94500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-75800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-67200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-80700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-78800</v>
       </c>
       <c r="K91" s="3">
         <v>-78800</v>
       </c>
       <c r="L91" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="M91" s="3">
         <v>-93200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-107000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-83700</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3666,9 +3889,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3705,48 +3931,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-191200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-146200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-115700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-141600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-109500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-79200</v>
       </c>
-      <c r="I94" s="3">
-        <v>-67600</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-86900</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-215600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-121200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3762,26 +3994,27 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-25200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-34900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-17900</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3800,9 +4033,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3839,9 +4075,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3878,9 +4117,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3917,124 +4159,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-142800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-98700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-221600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-75700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-119900</v>
       </c>
-      <c r="I100" s="3">
-        <v>-166000</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-118400</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>37400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-72800</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>800</v>
+      </c>
+      <c r="F101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>10400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-3800</v>
       </c>
-      <c r="I101" s="3">
-        <v>-22400</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7600</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-35200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-259300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>43000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>13000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>78600</v>
-      </c>
-      <c r="J102" s="3">
-        <v>74200</v>
       </c>
       <c r="K102" s="3">
         <v>74200</v>
       </c>
       <c r="L102" s="3">
+        <v>74200</v>
+      </c>
+      <c r="M102" s="3">
         <v>8200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOG.A_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>MOG.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44107</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42644</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42280</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41909</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41545</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41181</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40817</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3319100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3035800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2852000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2884600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2904700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2709500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2497500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2411900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2525500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2648400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2610300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2469500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2330700</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2427600</v>
+      </c>
+      <c r="E9" s="3">
         <v>2215000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2076300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2140900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2088800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1935400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1763800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1700400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1788800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1850800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1826600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1724200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1651200</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>891500</v>
+      </c>
+      <c r="E10" s="3">
         <v>820800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>775700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>743700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>815800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>774100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>733800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>711600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>736700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>797600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>783800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>745300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>679500</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,50 +881,54 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E12" s="3">
         <v>109500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>125500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>110900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>126500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>129800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>144200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>147300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>132300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>139500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>134700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>116400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>106400</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -951,51 +968,57 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E14" s="3">
         <v>30900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>169900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>36800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>52300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,9 +1058,12 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1051,92 +1077,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3103100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2832800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2648200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2879100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2677700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2527300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2315800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2239100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2341700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2429500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2445300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2260700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2146900</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>216100</v>
+      </c>
+      <c r="E18" s="3">
         <v>203000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>203800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>227000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>182200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>181700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>172900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>183800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>218900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>165000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>208800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>183800</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1153,8 +1186,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1194,51 +1228,57 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>306300</v>
+      </c>
+      <c r="E21" s="3">
         <v>291400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>293900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>92400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>312200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>270800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>271900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>271600</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>328200</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>309700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>280100</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1278,93 +1318,102 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>216100</v>
+      </c>
+      <c r="E23" s="3">
         <v>203000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>203800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>227000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>182200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>181700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>172900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>183800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>218900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>165000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>208800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>183800</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E24" s="3">
         <v>47800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>46600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>52400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>56600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>41300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>49200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>52000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>60700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>44500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>56400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>47800</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1404,93 +1453,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E26" s="3">
         <v>155200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>157200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>174500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>125600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>140400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>123600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>131900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>158200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>120500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>152500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>136000</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E27" s="3">
         <v>155200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>157200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>174500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>125500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>141300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>126700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>131900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>158200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>120500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>152500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>136000</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1530,9 +1588,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1548,11 +1609,11 @@
       <c r="G29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="3">
         <v>-30200</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>35</v>
@@ -1569,12 +1630,15 @@
       <c r="N29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1614,9 +1678,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1656,9 +1723,12 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1698,51 +1768,57 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E33" s="3">
         <v>155200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>157200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>174500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>95200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>141300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>126700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>131900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>158200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>120500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>152500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>136000</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1782,98 +1858,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E35" s="3">
         <v>155200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>157200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>174500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>95200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>141300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>126700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>131900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>158200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>120500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>152500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>136000</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44107</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42644</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42280</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41909</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41545</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41181</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40817</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1890,8 +1975,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1908,50 +1994,54 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>103900</v>
+        <v>69000</v>
       </c>
       <c r="E41" s="3">
+        <v>102000</v>
+      </c>
+      <c r="F41" s="3">
         <v>99600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>89700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>125600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>368100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>325100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>309900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>231300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>157100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>148800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>113700</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1967,17 +2057,17 @@
       <c r="G42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="3">
         <v>300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>400</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>35</v>
@@ -1991,177 +2081,192 @@
       <c r="O42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>990300</v>
+        <v>1141300</v>
       </c>
       <c r="E43" s="3">
+        <v>1605000</v>
+      </c>
+      <c r="F43" s="3">
         <v>945900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>855500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>957300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>793900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>727700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>688400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>698400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>780900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1622800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>744600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>655800</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>724000</v>
+      </c>
+      <c r="E44" s="3">
         <v>588500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>613100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>623000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>535000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>512500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>489100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>479000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>493400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>517100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>551700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>538300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>502400</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E45" s="3">
         <v>75700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>60200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>50300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>47000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>46500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>41400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>127200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>125900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>134800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>127200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>117300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>108600</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1758300</v>
+        <v>1985300</v>
       </c>
       <c r="E46" s="3">
+        <v>1756400</v>
+      </c>
+      <c r="F46" s="3">
         <v>1718800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1613500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1629000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1478500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1626400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1527200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1627500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1664100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1647400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1548900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1380400</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2201,93 +2306,102 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>870800</v>
+      </c>
+      <c r="E48" s="3">
         <v>738000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>706100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>668900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>586800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1922600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>523000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1770500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>536800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>555300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1738400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>546200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>503900</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>892900</v>
+      </c>
+      <c r="E49" s="3">
         <v>890700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>957700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>906900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>863900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>892800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>883100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>853700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>880900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>935900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1003900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>975000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>932600</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2327,9 +2441,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2369,51 +2486,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44800</v>
+        <v>59000</v>
       </c>
       <c r="E52" s="3">
+        <v>46700</v>
+      </c>
+      <c r="F52" s="3">
         <v>50600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>34600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>39900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>58100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>101600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>53100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>51700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>35800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26100</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2453,51 +2576,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3808000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3431800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3433200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3225800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3114200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2964000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3090600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3005000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3086500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3208500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3237100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3105900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2843000</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2514,8 +2643,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2532,260 +2662,279 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>264600</v>
+      </c>
+      <c r="E57" s="3">
         <v>232100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>176900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>257700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>207400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>170900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>144400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>166000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>162700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>181900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>169600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>165900</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
         <v>4200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>82400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>108900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>108500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>94000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10700</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>695300</v>
+      </c>
+      <c r="E59" s="3">
         <v>602200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>586400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>531100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>469700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>635600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>458200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>443000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>439400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>451200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>432900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>369800</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>965500</v>
+      </c>
+      <c r="E60" s="3">
         <v>838400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>869400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>710600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>727700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>680600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>629400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>588900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>605500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>722800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>723200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>663900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>546400</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>934300</v>
+      </c>
+      <c r="E61" s="3">
         <v>860400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>839300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>941400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>833000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>858800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>956700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1010500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1075100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>765100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>670700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>714800</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>272200</v>
+      </c>
+      <c r="E62" s="3">
         <v>296200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>324400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>330800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>231100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>199600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>290200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>417100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>411400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>373100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>377400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>466600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>389900</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2825,9 +2974,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2867,9 +3019,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2909,51 +3064,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2171900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1995000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2033000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1982700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1791800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1739100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1876300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2016600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2091900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1861000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1701300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1801100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1651100</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2970,8 +3131,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3011,9 +3173,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3053,9 +3218,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3095,9 +3263,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3137,51 +3308,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2497000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2360100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2237800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2112700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2133300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1973500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1847800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1706500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1579800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1447900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1289700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1169200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1016800</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3221,9 +3398,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3263,9 +3443,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3305,51 +3488,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1636100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1436800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1400100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1243100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1322500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1225000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1214300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>988400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>994500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1347400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1535800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1304800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1191900</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3389,98 +3578,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44107</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42644</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42280</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41909</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41545</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41181</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40817</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E81" s="3">
         <v>155200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>157200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>174500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>95200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>141300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>126700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>131900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>158200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>120500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>152500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>136000</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3497,50 +3695,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E83" s="3">
         <v>88400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>90200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>87000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>85300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>88600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>90200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>98700</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>109300</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>96300</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3580,9 +3782,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3622,9 +3827,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3664,9 +3872,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3706,9 +3917,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3748,51 +3962,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E89" s="3">
         <v>246800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>293200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>279200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>181400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>102400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>217800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>215900</v>
-      </c>
-      <c r="K89" s="3">
-        <v>287100</v>
       </c>
       <c r="L89" s="3">
         <v>287100</v>
       </c>
       <c r="M89" s="3">
+        <v>287100</v>
+      </c>
+      <c r="N89" s="3">
         <v>251300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>214300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>196200</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3809,50 +4029,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-173300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-139400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-128700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-88300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-118400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-94500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-75800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-67200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-78800</v>
       </c>
       <c r="L91" s="3">
         <v>-78800</v>
       </c>
       <c r="M91" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="N91" s="3">
         <v>-93200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-107000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-83700</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3892,9 +4116,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3934,51 +4161,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-83300</v>
+        <v>-163100</v>
       </c>
       <c r="E94" s="3">
+        <v>-85200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-191200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-146200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-115700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-141600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-109500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-79200</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-86900</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-215600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-121200</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3995,29 +4228,30 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-33000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-32100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-25200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-34900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-17900</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4036,9 +4270,12 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4078,9 +4315,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4120,9 +4360,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4162,133 +4405,145 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-134900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-87000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-142800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-98700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-221600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-75700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-119900</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-118400</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>37400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-72800</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-10300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>10400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3800</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7600</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-900</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18300</v>
+        <v>-48200</v>
       </c>
       <c r="E102" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F102" s="3">
         <v>15800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-35200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-259300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>43000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13000</v>
-      </c>
-      <c r="K102" s="3">
-        <v>74200</v>
       </c>
       <c r="L102" s="3">
         <v>74200</v>
       </c>
       <c r="M102" s="3">
+        <v>74200</v>
+      </c>
+      <c r="N102" s="3">
         <v>8200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>35200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
